--- a/Excel Data/AMATDRInsurance.xlsx
+++ b/Excel Data/AMATDRInsurance.xlsx
@@ -19,18 +19,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>T.C (Azure)</t>
+  </si>
+  <si>
+    <t>T.C (Desc.)</t>
+  </si>
+  <si>
+    <t>Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -45,7 +62,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -53,12 +70,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,23 +452,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>12194210</v>
       </c>
+      <c r="B2" s="2">
+        <v>114447</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel Data/AMATDRInsurance.xlsx
+++ b/Excel Data/AMATDRInsurance.xlsx
@@ -452,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,13 +476,103 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>12194210</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>114447</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>187</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1144487</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>188</v>
+      </c>
+      <c r="B4" s="2">
+        <v>114447</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>189</v>
+      </c>
+      <c r="B5" s="2">
+        <v>114447</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>190</v>
+      </c>
+      <c r="B6" s="2">
+        <v>114447</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>191</v>
+      </c>
+      <c r="B7" s="2">
+        <v>114447</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>192</v>
+      </c>
+      <c r="B8" s="2">
+        <v>114447</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>193</v>
+      </c>
+      <c r="B9" s="2">
+        <v>114447</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>194</v>
+      </c>
+      <c r="B10" s="2">
+        <v>114447</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>191</v>
+      </c>
+      <c r="B11" s="2">
+        <v>114447</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
